--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_6_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_6_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-411028.321368587</v>
+        <v>-414017.3629159495</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7788625.13334233</v>
+        <v>7757679.400320137</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13552345.2876875</v>
+        <v>13553493.25219078</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>239.1200334185284</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>238.598595338068</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -710,22 +710,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>239.9449318318011</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156.1271626621473</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>339.7049691848149</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>93.22825809980094</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>134.0896134541867</v>
       </c>
       <c r="W7" t="n">
-        <v>218.1740988936871</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>381.1235780628512</v>
       </c>
       <c r="G8" t="n">
-        <v>397.104183438948</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>63.01667685547804</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>118.0087880384505</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>8.264251623630969</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>144.7550149143189</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>284.3327560809772</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>74.75769145492539</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>208.3748099436933</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722627</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>10.2071648394539</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>127.5317086759484</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4.819245353184387</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2296,13 +2296,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>221.8540173484757</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,16 +2524,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>126.5660981224325</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>242.9374938862838</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>147.192026092116</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -2770,16 +2770,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>284.1870342025338</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>43.54171107304269</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>59.90320919298912</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3044,10 +3044,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873206</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292632</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881761</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.5968754185112</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I33" t="n">
-        <v>18.8172186824776</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734101615</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3238,10 +3238,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>71.67037196991254</v>
+        <v>250.5380562277805</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.6240527793848</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.1631028869118</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.5732527365872</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.820581188166</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.7662568576156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.7334871286618</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H35" t="n">
-        <v>283.4533031204485</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.50280171672379</v>
+        <v>84.61259060081882</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0872679533783</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U35" t="n">
-        <v>250.7991071035505</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V35" t="n">
-        <v>327.6424695860391</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.1311798333172</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.6213117943732</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.1281497719578</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3360,7 +3360,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H36" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.7221912978415</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.137032214532</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.5056841341165</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.3241737624734</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>119.8464668361055</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
-        <v>140.3442009078581</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S37" t="n">
-        <v>45.07239692968513</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T37" t="n">
-        <v>217.372205578666</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U37" t="n">
-        <v>286.0756626643246</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.0278544397322</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.4132094524952</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.5998665049413</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.474864467999</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081882</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3594,10 +3594,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,13 +3630,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T39" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U39" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>154.7370575672668</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.1518984839573</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>123.5205504035418</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>121.3390400318983</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>120.3261254082607</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>140.4471302624964</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>115.3590671772834</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.7096541297385</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.08582897641303</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.2435657437885</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>192.3870718480913</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.0905289337499</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317889</v>
+        <v>227.0427207091575</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>261.4280757219204</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>200.6147327743666</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>193.4897307374243</v>
       </c>
     </row>
     <row r="41">
@@ -3752,10 +3752,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3831,10 +3831,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,13 +3867,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T42" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U42" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>154.7370575672668</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.1518984839573</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>123.5205504035418</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>121.3390400318986</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>120.3261254082607</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>140.4471302624964</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>115.3590671772834</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.70965412973849</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.08582897641302</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>156.2435657437884</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>192.3870718480913</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.0905289337499</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>227.0427207091575</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>261.4280757219204</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>200.6147327743666</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>193.4897307374243</v>
       </c>
     </row>
     <row r="44">
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,10 +4068,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>154.7370575672668</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.1518984839573</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>123.5205504035418</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>121.3390400318986</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>120.3261254082607</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>140.4471302624964</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>115.3590671772834</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.70965412973848</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.08582897641301</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.2435657437884</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>192.3870718480913</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972044</v>
+        <v>261.0905289337499</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.0427207091575</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>261.4280757219204</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>200.6147327743666</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>193.4897307374243</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1228.366061714959</v>
+        <v>1552.368571789278</v>
       </c>
       <c r="C2" t="n">
-        <v>859.4035447745471</v>
+        <v>1552.368571789278</v>
       </c>
       <c r="D2" t="n">
-        <v>859.4035447745471</v>
+        <v>1194.102873182528</v>
       </c>
       <c r="E2" t="n">
-        <v>859.4035447745471</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F2" t="n">
-        <v>448.4176399849395</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4358,22 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2302.336936304455</v>
+        <v>2278.602985320472</v>
       </c>
       <c r="V2" t="n">
-        <v>1971.274048960885</v>
+        <v>2278.602985320472</v>
       </c>
       <c r="W2" t="n">
-        <v>1618.50539369077</v>
+        <v>1925.834330050358</v>
       </c>
       <c r="X2" t="n">
-        <v>1618.50539369077</v>
+        <v>1552.368571789278</v>
       </c>
       <c r="Y2" t="n">
-        <v>1228.366061714959</v>
+        <v>1552.368571789278</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,13 +4410,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>500.8207968750362</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U4" t="n">
-        <v>211.6471865296041</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V4" t="n">
-        <v>211.6471865296041</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>211.6471865296041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>211.6471865296041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>211.6471865296041</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1542.271337979254</v>
+        <v>1825.581288436855</v>
       </c>
       <c r="C5" t="n">
-        <v>1173.308821038842</v>
+        <v>1456.618771496444</v>
       </c>
       <c r="D5" t="n">
-        <v>815.0431224320916</v>
+        <v>1098.353072889693</v>
       </c>
       <c r="E5" t="n">
-        <v>815.0431224320916</v>
+        <v>712.564820291449</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>301.5789155018414</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304455</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2302.336936304455</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2302.336936304455</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X5" t="n">
-        <v>1928.871178043375</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="Y5" t="n">
-        <v>1928.871178043375</v>
+        <v>2212.181128500977</v>
       </c>
     </row>
     <row r="6">
@@ -4662,7 +4662,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>359.6044479702274</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C7" t="n">
-        <v>359.6044479702274</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D7" t="n">
-        <v>359.6044479702274</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406185</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406185</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406185</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="V7" t="n">
-        <v>579.9823256406185</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="W7" t="n">
-        <v>359.6044479702274</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X7" t="n">
-        <v>359.6044479702274</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y7" t="n">
-        <v>359.6044479702274</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1193.238943380987</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="C8" t="n">
-        <v>1193.238943380987</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="D8" t="n">
-        <v>1193.238943380987</v>
+        <v>1337.540797065682</v>
       </c>
       <c r="E8" t="n">
-        <v>1193.238943380987</v>
+        <v>1337.540797065682</v>
       </c>
       <c r="F8" t="n">
-        <v>782.2530385913799</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4832,22 +4832,22 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2267.209817970484</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>1936.146930626913</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W8" t="n">
-        <v>1583.378275356799</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X8" t="n">
-        <v>1583.378275356799</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="Y8" t="n">
-        <v>1193.238943380987</v>
+        <v>1695.806495672433</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>249.7161456655658</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="C10" t="n">
-        <v>249.7161456655658</v>
+        <v>117.5961907652918</v>
       </c>
       <c r="D10" t="n">
-        <v>99.5995062532301</v>
+        <v>117.5961907652918</v>
       </c>
       <c r="E10" t="n">
-        <v>99.5995062532301</v>
+        <v>117.5961907652918</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>117.5961907652918</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>117.5961907652918</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>117.5961907652918</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942404</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>431.3646104958056</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U10" t="n">
-        <v>431.3646104958056</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V10" t="n">
-        <v>431.3646104958056</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="W10" t="n">
-        <v>431.3646104958056</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="X10" t="n">
-        <v>431.3646104958056</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="Y10" t="n">
-        <v>431.3646104958056</v>
+        <v>286.5323736931987</v>
       </c>
     </row>
     <row r="11">
@@ -5066,19 +5066,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
         <v>205.0702204089889</v>
@@ -5124,7 +5124,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320241</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5160,10 +5160,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>784.0235789048305</v>
+        <v>567.9454261809101</v>
       </c>
       <c r="C13" t="n">
-        <v>784.0235789048305</v>
+        <v>567.9454261809101</v>
       </c>
       <c r="D13" t="n">
-        <v>633.9069394924948</v>
+        <v>417.8287867685743</v>
       </c>
       <c r="E13" t="n">
-        <v>485.9938459101016</v>
+        <v>417.8287867685743</v>
       </c>
       <c r="F13" t="n">
-        <v>339.1038984121913</v>
+        <v>409.4810578558158</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305347</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V13" t="n">
-        <v>1701.658977898817</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="W13" t="n">
-        <v>1414.454173776618</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="X13" t="n">
-        <v>1186.4646228786</v>
+        <v>970.38647015468</v>
       </c>
       <c r="Y13" t="n">
-        <v>965.6720437350702</v>
+        <v>749.5938910111498</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5303,25 +5303,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5346,7 +5346,7 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468568</v>
@@ -5355,10 +5355,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L15" t="n">
         <v>794.200663232024</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>973.7726509601081</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>804.8364680322012</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>654.7198286198654</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953313</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442077</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927038</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892253</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518531</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.73316995219</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104705</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862233</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T16" t="n">
-        <v>1745.863860100973</v>
+        <v>1453.060509258586</v>
       </c>
       <c r="U16" t="n">
-        <v>1745.863860100973</v>
+        <v>1163.957642384229</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.179371895086</v>
+        <v>909.2731541783422</v>
       </c>
       <c r="W16" t="n">
-        <v>1201.762201858126</v>
+        <v>619.8559841413817</v>
       </c>
       <c r="X16" t="n">
-        <v>973.7726509601081</v>
+        <v>391.8664332433643</v>
       </c>
       <c r="Y16" t="n">
-        <v>973.7726509601081</v>
+        <v>171.0738540998342</v>
       </c>
     </row>
     <row r="17">
@@ -5498,43 +5498,43 @@
         <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
@@ -5598,7 +5598,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320241</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>709.4168978689405</v>
+        <v>402.8778888732404</v>
       </c>
       <c r="C19" t="n">
-        <v>540.4807149410336</v>
+        <v>402.8778888732404</v>
       </c>
       <c r="D19" t="n">
-        <v>390.3640755286979</v>
+        <v>252.7612494609047</v>
       </c>
       <c r="E19" t="n">
-        <v>242.4509819463048</v>
+        <v>252.7612494609047</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>105.8713019629943</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>105.8713019629943</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>105.8713019629943</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5698,25 +5698,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1737.693101108749</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T19" t="n">
-        <v>1515.926485678275</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U19" t="n">
-        <v>1226.823618803918</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="V19" t="n">
-        <v>1226.823618803918</v>
+        <v>1322.725653781988</v>
       </c>
       <c r="W19" t="n">
-        <v>937.4064487669579</v>
+        <v>1033.308483745028</v>
       </c>
       <c r="X19" t="n">
-        <v>709.4168978689405</v>
+        <v>805.3189328470103</v>
       </c>
       <c r="Y19" t="n">
-        <v>709.4168978689405</v>
+        <v>584.5263537034801</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
@@ -5753,25 +5753,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2628.734306600803</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5789,13 +5789,13 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5805,43 +5805,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
         <v>2125.96131142685</v>
@@ -5850,7 +5850,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5859,16 +5859,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
         <v>1346.568408282342</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>676.4156786811474</v>
+        <v>558.6274977408367</v>
       </c>
       <c r="C22" t="n">
-        <v>507.4794957532405</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="D22" t="n">
-        <v>507.4794957532405</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="E22" t="n">
-        <v>507.4794957532405</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F22" t="n">
-        <v>360.5895482553301</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G22" t="n">
-        <v>192.8867116300491</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>909.2731541783409</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="W22" t="n">
-        <v>909.2731541783409</v>
+        <v>964.3709295897388</v>
       </c>
       <c r="X22" t="n">
-        <v>681.2836032803235</v>
+        <v>740.2759625710764</v>
       </c>
       <c r="Y22" t="n">
-        <v>681.2836032803235</v>
+        <v>740.2759625710764</v>
       </c>
     </row>
     <row r="23">
@@ -5990,16 +5990,16 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>2762.028521254639</v>
       </c>
       <c r="O23" t="n">
         <v>3482.142110232731</v>
@@ -6042,43 +6042,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O24" t="n">
         <v>2125.96131142685</v>
@@ -6087,7 +6087,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6096,16 +6096,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X24" t="n">
         <v>1346.568408282342</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>559.3002584566048</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C25" t="n">
-        <v>390.3640755286979</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D25" t="n">
-        <v>390.3640755286979</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E25" t="n">
-        <v>242.4509819463048</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839442</v>
@@ -6172,25 +6172,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1828.498922546691</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1606.732307116217</v>
       </c>
       <c r="U25" t="n">
-        <v>1297.499558535113</v>
+        <v>1606.732307116217</v>
       </c>
       <c r="V25" t="n">
-        <v>1297.499558535113</v>
+        <v>1352.04781891033</v>
       </c>
       <c r="W25" t="n">
-        <v>1008.082388498152</v>
+        <v>1062.630648873369</v>
       </c>
       <c r="X25" t="n">
-        <v>780.0928376001349</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y25" t="n">
-        <v>559.3002584566048</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="26">
@@ -6203,52 +6203,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1971.087962216427</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M26" t="n">
-        <v>2504.619866888352</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N26" t="n">
-        <v>3051.398683947134</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O26" t="n">
-        <v>3692.333950986037</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4405.689038432983</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
         <v>4667.761053946815</v>
@@ -6257,19 +6257,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6279,73 +6279,73 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973185</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161915</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549404</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494848</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763699</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089887</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U27" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.56840828234</v>
       </c>
       <c r="Y27" t="n">
         <v>1138.808109517387</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>877.1197344942216</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C28" t="n">
-        <v>708.1835515663147</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D28" t="n">
-        <v>558.0669121539789</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E28" t="n">
-        <v>410.1538185715858</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F28" t="n">
         <v>263.2638710736754</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6418,16 +6418,16 @@
         <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1253.788099626699</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>1253.788099626699</v>
+        <v>712.0460011152229</v>
       </c>
       <c r="X28" t="n">
-        <v>1025.798548728682</v>
+        <v>484.0564502172056</v>
       </c>
       <c r="Y28" t="n">
-        <v>1025.798548728682</v>
+        <v>263.2638710736754</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1236.699401366028</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>1770.231306037953</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>2749.9835782646</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6516,34 +6516,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L30" t="n">
         <v>794.200663232024</v>
@@ -6552,28 +6552,28 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>432.2000540015823</v>
+        <v>307.2453974100822</v>
       </c>
       <c r="C31" t="n">
-        <v>263.2638710736754</v>
+        <v>307.2453974100822</v>
       </c>
       <c r="D31" t="n">
-        <v>263.2638710736754</v>
+        <v>307.2453974100822</v>
       </c>
       <c r="E31" t="n">
-        <v>263.2638710736754</v>
+        <v>307.2453974100822</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736754</v>
+        <v>307.2453974100822</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>139.5425607848012</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>139.5425607848012</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6646,25 +6646,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1895.835173990573</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1895.835173990573</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1606.732307116217</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>1352.04781891033</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W31" t="n">
-        <v>1062.630648873369</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X31" t="n">
-        <v>834.6410979753522</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="Y31" t="n">
-        <v>613.848518831822</v>
+        <v>488.8938622403219</v>
       </c>
     </row>
     <row r="32">
@@ -6689,37 +6689,37 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089262</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.845814427772</v>
+        <v>451.8458144277731</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.56914656307</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811478</v>
+        <v>1557.603359811482</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.1352644834</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542181</v>
+        <v>2637.914081542189</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232735</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.49719767968</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6753,52 +6753,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.59277249732</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216193</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763711</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089892</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468566</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390202</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193665</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320307</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.476988454345</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008798</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426852</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6810,19 +6810,19 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6856,52 +6856,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>140.6836668953297</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442055</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927009</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892249</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N34" t="n">
-        <v>1346.796070598113</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518526</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>1878.733169952185</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104699</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104699</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104699</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T34" t="n">
-        <v>1956.343466104699</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U34" t="n">
-        <v>1883.949150983575</v>
+        <v>1481.508107009805</v>
       </c>
       <c r="V34" t="n">
-        <v>1629.264662777688</v>
+        <v>1226.823618803918</v>
       </c>
       <c r="W34" t="n">
-        <v>1339.847492740728</v>
+        <v>937.4064487669579</v>
       </c>
       <c r="X34" t="n">
-        <v>1111.85794184271</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="Y34" t="n">
-        <v>891.0653626991802</v>
+        <v>709.4168978689405</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.564121551396</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.712502473707</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.55770172968</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.880346994159</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.0053400672741</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G35" t="n">
-        <v>380.1331308464048</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J35" t="n">
-        <v>373.3125385470849</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K35" t="n">
-        <v>842.9429223347668</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L35" t="n">
-        <v>1462.462702840542</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M35" t="n">
-        <v>2183.467264779579</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N35" t="n">
-        <v>2920.752242696685</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O35" t="n">
-        <v>3603.614279155824</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P35" t="n">
-        <v>4201.167179115849</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q35" t="n">
-        <v>4564.749365221855</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S35" t="n">
-        <v>4605.476787028166</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T35" t="n">
-        <v>4404.378536570208</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.046105152479</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.094115671631</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.43635826424</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.081497865883</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.053063752795</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.6291563257736</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C36" t="n">
-        <v>769.1761270446466</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D36" t="n">
-        <v>620.2417173833953</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E36" t="n">
-        <v>461.0042623779398</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F36" t="n">
-        <v>314.4697044048247</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G36" t="n">
-        <v>178.6894541647542</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J36" t="n">
-        <v>241.4646447998178</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K36" t="n">
-        <v>571.9733873631767</v>
+        <v>302.0892292003572</v>
       </c>
       <c r="L36" t="n">
-        <v>1062.705720206928</v>
+        <v>792.8215620441084</v>
       </c>
       <c r="M36" t="n">
-        <v>1356.759402180614</v>
+        <v>1384.839916296236</v>
       </c>
       <c r="N36" t="n">
-        <v>1356.759402180614</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O36" t="n">
-        <v>1903.635877180808</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P36" t="n">
-        <v>2323.219395606884</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R36" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.168964849488</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T36" t="n">
-        <v>2244.875258751902</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U36" t="n">
-        <v>2016.845757276272</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V36" t="n">
-        <v>1781.69364904453</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W36" t="n">
-        <v>1527.456292316328</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X36" t="n">
-        <v>1319.604792110795</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y36" t="n">
-        <v>1111.844493345842</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>702.211704481285</v>
+        <v>1073.589098669834</v>
       </c>
       <c r="C37" t="n">
-        <v>533.3864194161011</v>
+        <v>904.6529157419272</v>
       </c>
       <c r="D37" t="n">
-        <v>383.3806778664884</v>
+        <v>754.5362763295915</v>
       </c>
       <c r="E37" t="n">
-        <v>235.5784821468184</v>
+        <v>606.6231827471984</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5784821468184</v>
+        <v>485.566145539011</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5784821468184</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J37" t="n">
-        <v>172.9074769327806</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K37" t="n">
-        <v>432.6448948985992</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L37" t="n">
-        <v>820.5154039769883</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M37" t="n">
-        <v>1239.853687016702</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N37" t="n">
-        <v>1654.658243803664</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O37" t="n">
-        <v>2021.789391813949</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P37" t="n">
-        <v>2312.428517645408</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q37" t="n">
-        <v>2430.250342194098</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R37" t="n">
-        <v>2430.250342194098</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S37" t="n">
-        <v>2384.72266852775</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T37" t="n">
-        <v>2165.154784104855</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U37" t="n">
-        <v>1876.189468282304</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="V37" t="n">
-        <v>1621.615877939141</v>
+        <v>1704.019693541621</v>
       </c>
       <c r="W37" t="n">
-        <v>1332.309605764903</v>
+        <v>1704.019693541621</v>
       </c>
       <c r="X37" t="n">
-        <v>1104.430952729609</v>
+        <v>1476.030142643604</v>
       </c>
       <c r="Y37" t="n">
-        <v>883.7492714488017</v>
+        <v>1255.237563500074</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C39" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D39" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K39" t="n">
-        <v>119.290296770379</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1684.833368709899</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2231.709843710093</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R39" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S39" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T39" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U39" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V39" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W39" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y39" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>921.983162189159</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>778.3953859427374</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>653.6271532118872</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>531.0624663109797</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>409.5209254945547</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>267.655137350619</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.1308270705348</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>197.6744444296847</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>482.1471447887722</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>894.7529362604303</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1338.826501693413</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1778.366340873644</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2170.232771277198</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2485.607179501926</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2628.164286443885</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2585.653348083872</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2427.831564504287</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2233.501188900154</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1969.773381896367</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1740.437300371965</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1476.36853701649</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1273.727392799958</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1078.283220337913</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.092171589158</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W42" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319321</v>
+        <v>921.9831621891587</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>778.3953859427372</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>653.6271532118869</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>531.0624663109793</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>409.5209254945548</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>267.655137350619</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.1308270705348</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954148</v>
+        <v>197.6744444296848</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380727</v>
+        <v>482.1471447887723</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231132</v>
+        <v>894.7529362604305</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1338.826501693414</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1778.366340873644</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2170.232771277198</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2485.607179501926</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2628.164286443885</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2585.653348083871</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2427.831564504287</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2233.501188900154</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1969.773381896367</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1740.437300371965</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1476.36853701649</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1273.727392799958</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1078.283220337913</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>373.2380436180325</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>965.2563978701601</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1587.352361269496</v>
       </c>
       <c r="O45" t="n">
-        <v>2297.690135143765</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319323</v>
+        <v>921.9831621891587</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656817</v>
+        <v>778.3953859427372</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>653.6271532118869</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>531.0624663109793</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>409.5209254945544</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>267.655137350619</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.1308270705348</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>197.6744444296848</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>482.1471447887723</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>894.7529362604305</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1338.826501693414</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656414</v>
+        <v>1778.366340873644</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2170.232771277198</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2485.607179501926</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2628.164286443885</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2585.653348083871</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2427.831564504287</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2233.501188900154</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1969.773381896367</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1740.437300371965</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1476.36853701649</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1273.727392799958</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1078.283220337913</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9401,28 +9401,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>401.5033668799356</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9638,19 +9638,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476829</v>
+        <v>219.3344627260153</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>139.3563597571375</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>231.5010718068643</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476961</v>
+        <v>344.7025836476826</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10598,10 +10598,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>51.31264782909113</v>
       </c>
       <c r="P35" t="n">
-        <v>49.74439522492617</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>51.31264782909125</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>51.31264782909113</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -22553,13 +22553,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>142.8103366537333</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>150.4755647556299</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>137.1567963993003</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761657</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>2.190242255613782</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270119</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>11.1741393324759</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>86.14525557038419</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,16 +23938,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>62.23731665549352</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>175.0127348287529</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,13 +24184,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>3.855638040561416</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,13 +24370,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24412,16 +24412,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>63.20292720900936</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>43.27434431932909</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>32.63995408982134</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24658,16 +24658,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>2.335964134057178</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24856,7 +24856,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>52.8107093367954</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>129.8658161384528</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983823</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004753</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S34" t="n">
-        <v>189.769025331442</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>214.5414662357003</v>
+        <v>35.67378197783233</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25321,16 +25321,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.3112591388354</v>
+        <v>25.57458118682571</v>
       </c>
       <c r="G37" t="n">
-        <v>165.4322639930711</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.6947878603132</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,22 +25357,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.07096270698773</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>136.156302544678</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>2.984279490192421e-13</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>-6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1206063.535958184</v>
+        <v>1206153.0529133</v>
       </c>
     </row>
     <row r="3">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1153866.371218123</v>
+        <v>1153795.579199101</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1173644.185846678</v>
+        <v>1174256.858861757</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1173644.185846678</v>
+        <v>1174256.858861757</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1173644.185846678</v>
+        <v>1174256.858861757</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>262945.7723456641</v>
+        <v>262966.1884933219</v>
       </c>
       <c r="C2" t="n">
         <v>266838.5752058922</v>
       </c>
       <c r="D2" t="n">
-        <v>266838.5752058923</v>
+        <v>266838.5752058922</v>
       </c>
       <c r="E2" t="n">
+        <v>258103.1614765391</v>
+      </c>
+      <c r="F2" t="n">
+        <v>258103.1614765391</v>
+      </c>
+      <c r="G2" t="n">
         <v>258103.1614765392</v>
-      </c>
-      <c r="F2" t="n">
-        <v>258103.1614765392</v>
-      </c>
-      <c r="G2" t="n">
-        <v>258103.1614765391</v>
       </c>
       <c r="H2" t="n">
         <v>258103.1614765391</v>
@@ -26335,25 +26335,25 @@
         <v>258103.161476539</v>
       </c>
       <c r="J2" t="n">
+        <v>258103.161476539</v>
+      </c>
+      <c r="K2" t="n">
         <v>258103.1614765391</v>
       </c>
-      <c r="K2" t="n">
-        <v>258103.161476539</v>
-      </c>
       <c r="L2" t="n">
-        <v>258103.161476539</v>
+        <v>258103.1614765391</v>
       </c>
       <c r="M2" t="n">
-        <v>262192.3837111894</v>
+        <v>262171.9675635318</v>
       </c>
       <c r="N2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.5752058919</v>
       </c>
       <c r="O2" t="n">
-        <v>266838.5752058923</v>
+        <v>266838.5752058919</v>
       </c>
       <c r="P2" t="n">
-        <v>266838.5752058923</v>
+        <v>266838.5752058918</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,13 +26393,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-1.21757348436707e-10</v>
+        <v>3.25168002746068e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>312959.146448557</v>
+        <v>312970.0160233568</v>
       </c>
       <c r="N3" t="n">
-        <v>26197.77792561411</v>
+        <v>20075.93809173644</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185370.0311484424</v>
+        <v>185405.8861173443</v>
       </c>
       <c r="C4" t="n">
         <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
         <v>21619.60799709188</v>
@@ -26430,34 +26430,34 @@
         <v>21619.60799709188</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709184</v>
       </c>
       <c r="H4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="I4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="J4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="K4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="L4" t="n">
-        <v>21619.60799709202</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="M4" t="n">
-        <v>5156.962217674892</v>
+        <v>5069.915760662955</v>
       </c>
       <c r="N4" t="n">
-        <v>12448.50789975162</v>
+        <v>13327.39591958994</v>
       </c>
       <c r="O4" t="n">
-        <v>12448.50789975161</v>
+        <v>13327.3959195899</v>
       </c>
       <c r="P4" t="n">
-        <v>12448.50789975159</v>
+        <v>13327.3959195899</v>
       </c>
     </row>
     <row r="5">
@@ -26491,25 +26491,25 @@
         <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="K5" t="n">
         <v>96383.51825371364</v>
       </c>
-      <c r="K5" t="n">
-        <v>96383.51825371366</v>
-      </c>
       <c r="L5" t="n">
-        <v>96383.5182537136</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="M5" t="n">
-        <v>100915.1886201729</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>103039.7445065313</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>103039.7445065313</v>
       </c>
       <c r="P5" t="n">
-        <v>103164.1158539154</v>
+        <v>103039.7445065313</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-595251.2160807323</v>
+        <v>-595296.4424920729</v>
       </c>
       <c r="C6" t="n">
-        <v>-8227.099249946943</v>
+        <v>-8227.099249946972</v>
       </c>
       <c r="D6" t="n">
         <v>-8227.099249946972</v>
       </c>
       <c r="E6" t="n">
-        <v>-587277.378767673</v>
+        <v>-587344.5742578991</v>
       </c>
       <c r="F6" t="n">
-        <v>140100.0352257336</v>
+        <v>140032.8397355078</v>
       </c>
       <c r="G6" t="n">
-        <v>140100.0352257335</v>
+        <v>140032.8397355079</v>
       </c>
       <c r="H6" t="n">
-        <v>140100.0352257336</v>
+        <v>140032.8397355078</v>
       </c>
       <c r="I6" t="n">
-        <v>140100.0352257335</v>
+        <v>140032.8397355076</v>
       </c>
       <c r="J6" t="n">
-        <v>-36323.18396685936</v>
+        <v>-36390.37945708524</v>
       </c>
       <c r="K6" t="n">
-        <v>140100.0352257335</v>
+        <v>140032.8397355078</v>
       </c>
       <c r="L6" t="n">
-        <v>140100.0352257352</v>
+        <v>140032.8397355074</v>
       </c>
       <c r="M6" t="n">
-        <v>-156838.9135752154</v>
+        <v>-156833.9006595908</v>
       </c>
       <c r="N6" t="n">
-        <v>125028.1735266109</v>
+        <v>130395.4966880342</v>
       </c>
       <c r="O6" t="n">
-        <v>151225.9514522253</v>
+        <v>150471.4347797707</v>
       </c>
       <c r="P6" t="n">
-        <v>151225.9514522253</v>
+        <v>150471.4347797706</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26765,19 +26765,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593296</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="M3" t="n">
         <v>1358.041048716386</v>
       </c>
       <c r="N3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
     </row>
     <row r="4">
@@ -26820,16 +26820,16 @@
         <v>1194.51293060493</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
     </row>
   </sheetData>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.17485860794389</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26987,13 +26987,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-1.327315100717049e-12</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M3" t="n">
-        <v>268.26434812309</v>
+        <v>268.2643481230868</v>
       </c>
       <c r="N3" t="n">
-        <v>9.93445162528792</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.8170791405322</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>24.71000992709708</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>11.27923567648824</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23.70481751979003</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>96.25160475629417</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>67.17107655689654</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>320.555911920994</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,10 +27831,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>118.0480298696413</v>
       </c>
       <c r="W7" t="n">
-        <v>68.34889944290387</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27856,22 +27856,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>25.75246767886028</v>
       </c>
       <c r="G8" t="n">
-        <v>16.67998658184695</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>71.94894493686022</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>107.0263174196338</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-1.06581410364015e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28263,7 +28263,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -28299,7 +28299,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>3.534950110406498e-12</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28506,7 +28506,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0.1097888840958194</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="T35" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
     </row>
     <row r="41">
@@ -30517,7 +30517,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32804,7 +32804,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
@@ -33023,7 +33023,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681587</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844658</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974796</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.832905495398</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003797</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623178</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574977</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095005</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099042</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746399</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781679</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563563</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806928</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T32" t="n">
-        <v>19.17787942451116</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U32" t="n">
-        <v>0.350480948934527</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502561</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798526</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I33" t="n">
-        <v>80.7051613175224</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026524</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353149</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138784</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233461</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N33" t="n">
-        <v>609.647816683791</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970238</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002917</v>
+        <v>447.6103584002915</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987479</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905538</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238306</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898476</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1542136840462212</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430533</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
-        <v>17.47215759311875</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742005</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J34" t="n">
-        <v>138.9375967297387</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702019</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098813</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316426</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883108</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023085995</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P34" t="n">
-        <v>237.6785118802164</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.5562817895877</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712196</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553028</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112276</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780292</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,46 +33646,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H35" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K35" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L35" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M35" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N35" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O35" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P35" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q35" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R35" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S35" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T35" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U35" t="n">
         <v>0.436756920190194</v>
@@ -33728,43 +33728,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H36" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>471.6886536848224</v>
+        <v>348.1857632660258</v>
       </c>
       <c r="L36" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M36" t="n">
-        <v>439.1579551075595</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O36" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P36" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T36" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U36" t="n">
         <v>0.1921756201013754</v>
@@ -33810,7 +33810,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I37" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J37" t="n">
         <v>173.1391022273333</v>
@@ -33819,16 +33819,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L37" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M37" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N37" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O37" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P37" t="n">
         <v>296.1865264282424</v>
@@ -33840,7 +33840,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S37" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T37" t="n">
         <v>10.46359496551969</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K39" t="n">
-        <v>163.5723821283055</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>459.3304791170305</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R40" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T40" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O42" t="n">
-        <v>606.5820696732821</v>
+        <v>189.4642825742353</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>420.7661933823242</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P45" t="n">
-        <v>156.3072281639545</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181306</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306755</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>953.8052022928471</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36358,19 +36358,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>852.755584535902</v>
+        <v>727.3874636142344</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
@@ -36452,7 +36452,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>647.4093606453566</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597718</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>739.5540726950834</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407855</v>
+        <v>359.8836161407865</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265639</v>
+        <v>661.3366991265655</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923306</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302249</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129097</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359135</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908531</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636231</v>
+        <v>463.1092954636244</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152066</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453598566</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609559</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340042</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013278</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004577</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525793</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859614</v>
+        <v>313.6359509859612</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127264</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306591</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K34" t="n">
-        <v>206.047659544319</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L34" t="n">
-        <v>319.7573721701974</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M34" t="n">
-        <v>347.6333793934832</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N34" t="n">
-        <v>344.8569461675394</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226392</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P34" t="n">
-        <v>234.9570711451099</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789329</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K35" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L35" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M35" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N35" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O35" t="n">
-        <v>689.7596327870085</v>
+        <v>741.0722806160995</v>
       </c>
       <c r="P35" t="n">
-        <v>603.5887878384092</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q35" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R35" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>333.8472147104634</v>
+        <v>210.3443242916669</v>
       </c>
       <c r="L36" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M36" t="n">
-        <v>297.0239211855412</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O36" t="n">
-        <v>552.4004797981761</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P36" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.88971099475634</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K37" t="n">
-        <v>262.3610282483016</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L37" t="n">
-        <v>391.7883930084739</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M37" t="n">
-        <v>423.5740232724386</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N37" t="n">
-        <v>418.9945018050119</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O37" t="n">
-        <v>370.8395434447318</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P37" t="n">
-        <v>293.5748745772317</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q37" t="n">
-        <v>119.0119439885757</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>605.157040442574</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K39" t="n">
-        <v>25.73094315394657</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>325.3560717027003</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>104.874844725331</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>287.3461619788762</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>416.7735267390485</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>448.5591570030133</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>443.9796355355866</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>395.8246771753065</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>318.5600083078064</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>143.9970777191504</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O42" t="n">
-        <v>463.9858252288377</v>
+        <v>46.86803812979091</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>104.874844725331</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>287.3461619788763</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>416.7735267390486</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>448.5591570030133</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>443.9796355355866</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>395.8246771753065</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>318.5600083078064</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>143.9970777191504</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>741.0722806160995</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>282.21181360245</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P45" t="n">
-        <v>22.33282074962425</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549931</v>
+        <v>104.874844725331</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>287.3461619788763</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>416.7735267390486</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>448.5591570030133</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>443.9796355355866</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>395.8246771753065</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986647</v>
+        <v>318.5600083078064</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>143.9970777191504</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
